--- a/OutputData/Nipah/01_09/Nipah_chord3_table.xlsx
+++ b/OutputData/Nipah/01_09/Nipah_chord3_table.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -539,7 +539,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -626,7 +626,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -655,7 +655,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1999 - 2003</t>
+          <t>1999 - 2006</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -709,7 +709,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -767,7 +767,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -796,7 +796,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -825,7 +825,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -854,7 +854,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -966,7 +966,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -995,7 +995,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2019 - 2023</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2015 - 2023</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2004 - 2008</t>
+          <t>1999 - 2006</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2009 - 2013</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1999 - 2003</t>
+          <t>1999 - 2006</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1999 - 2003</t>
+          <t>1999 - 2006</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1999 - 2003</t>
+          <t>1999 - 2006</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2014 - 2018</t>
+          <t>2007 - 2014</t>
         </is>
       </c>
       <c r="E44" t="n">
